--- a/BackTest/2020-01-11 BackTest BCD.xlsx
+++ b/BackTest/2020-01-11 BackTest BCD.xlsx
@@ -5141,14 +5141,20 @@
         <v>396.8466666666664</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>386.4</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5176,14 +5182,20 @@
         <v>396.6866666666664</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>383.8</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5217,12 +5229,12 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>384.8</v>
+        <v>388.9</v>
       </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M138" t="n">
@@ -5258,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>387.9</v>
+        <v>388.9</v>
       </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
@@ -5299,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>385.9</v>
+        <v>387.9</v>
       </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
@@ -5381,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>385</v>
+        <v>385.9</v>
       </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
@@ -5422,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>386.9</v>
+        <v>385.9</v>
       </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
@@ -5463,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>387.5</v>
+        <v>386.9</v>
       </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
@@ -5504,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>388.9</v>
+        <v>389.9</v>
       </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
@@ -5545,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>387</v>
+        <v>388.9</v>
       </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
@@ -5627,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>386.9</v>
+        <v>387</v>
       </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
@@ -5662,14 +5674,12 @@
         <v>394.1683333333332</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>386.9</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5703,14 +5713,12 @@
         <v>393.9616666666666</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>386.9</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -5744,14 +5752,12 @@
         <v>393.805</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>386.9</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -5785,14 +5791,12 @@
         <v>393.6716666666667</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>392</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -5826,14 +5830,12 @@
         <v>393.5733333333333</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>392</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -5867,14 +5869,12 @@
         <v>393.49</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>395.2</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -5908,14 +5908,12 @@
         <v>393.455</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>397.9</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -5949,14 +5947,12 @@
         <v>393.4116666666667</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>397.9</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -7277,14 +7273,12 @@
         <v>391.5516666666668</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>390.3</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
@@ -7318,14 +7312,12 @@
         <v>391.5733333333335</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>390.3</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
@@ -7359,14 +7351,12 @@
         <v>391.5733333333335</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>389</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
@@ -7400,14 +7390,12 @@
         <v>391.7566666666668</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>388.4</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
@@ -7441,14 +7429,12 @@
         <v>391.7966666666668</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>392.3</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -7794,14 +7780,12 @@
         <v>392.4949999999999</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>390</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
@@ -7835,14 +7819,12 @@
         <v>392.4666666666666</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>388.2</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
@@ -7876,14 +7858,12 @@
         <v>392.4683333333332</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>388.2</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
@@ -7917,14 +7897,12 @@
         <v>392.5183333333333</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>389</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
@@ -7958,14 +7936,12 @@
         <v>392.6183333333332</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>390</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
@@ -7999,14 +7975,12 @@
         <v>392.6349999999999</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>390.2</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
@@ -8157,14 +8131,12 @@
         <v>392.5399999999999</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>387.3</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -8198,14 +8170,12 @@
         <v>392.4866666666666</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>389</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -8239,14 +8209,12 @@
         <v>392.4033333333333</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>389.9</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
@@ -8280,14 +8248,12 @@
         <v>392.2516666666665</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>388.8</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
@@ -8321,14 +8287,12 @@
         <v>392.1249999999998</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>389.8</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
@@ -8362,14 +8326,12 @@
         <v>391.9866666666665</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>389.8</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -8403,14 +8365,12 @@
         <v>391.8999999999998</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>389.8</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
@@ -8444,14 +8404,12 @@
         <v>391.8033333333332</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>389.8</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
@@ -8485,14 +8443,12 @@
         <v>391.7499999999998</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>390.8</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
@@ -8526,14 +8482,12 @@
         <v>391.6033333333332</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>389</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
@@ -8567,14 +8521,12 @@
         <v>391.4599999999999</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>383.3</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
@@ -8608,14 +8560,12 @@
         <v>391.3733333333332</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>387.8</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
@@ -8649,14 +8599,12 @@
         <v>391.2316666666665</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>387.9</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
@@ -8690,14 +8638,12 @@
         <v>391.1466666666665</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>387.9</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
@@ -8731,14 +8677,12 @@
         <v>390.9649999999999</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>385.2</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
@@ -8772,14 +8716,12 @@
         <v>390.8466666666665</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>385.9</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
@@ -8813,14 +8755,12 @@
         <v>390.6983333333332</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>383.1</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
@@ -8854,14 +8794,12 @@
         <v>390.6016666666665</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>387.1</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
@@ -8895,14 +8833,12 @@
         <v>390.5016666666665</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>386.7</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
@@ -8936,14 +8872,12 @@
         <v>390.4049999999999</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>386.9</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
@@ -8977,14 +8911,12 @@
         <v>390.2783333333333</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>387.9</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
@@ -9018,14 +8950,12 @@
         <v>390.1666666666666</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>387</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
@@ -9059,14 +8989,12 @@
         <v>390.0716666666665</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>388</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
@@ -9100,14 +9028,12 @@
         <v>389.9766666666665</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>388</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
@@ -9141,14 +9067,12 @@
         <v>389.9583333333331</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>392.1</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
@@ -9182,14 +9106,12 @@
         <v>389.9899999999998</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>395.6</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
@@ -9223,14 +9145,12 @@
         <v>389.9949999999998</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>394</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
@@ -9264,14 +9184,12 @@
         <v>389.9799999999997</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>394</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
@@ -9305,14 +9223,12 @@
         <v>389.9699999999997</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>393.9</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
@@ -9346,14 +9262,12 @@
         <v>389.9449999999998</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>393.9</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
@@ -9387,14 +9301,12 @@
         <v>389.9683333333331</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>394.9</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
@@ -10481,14 +10393,12 @@
         <v>391.5216666666666</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>389.2</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
@@ -10522,14 +10432,12 @@
         <v>391.5383333333333</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>390.6</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
@@ -10641,14 +10549,12 @@
         <v>391.6116666666667</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>391.4</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
@@ -10682,14 +10588,12 @@
         <v>391.6783333333333</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>391.4</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
@@ -10723,14 +10627,12 @@
         <v>391.7283333333334</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>391.8</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
@@ -10764,14 +10666,12 @@
         <v>391.775</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>392.7</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
@@ -10805,14 +10705,12 @@
         <v>391.7983333333333</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>391.2</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
@@ -10846,14 +10744,12 @@
         <v>391.8183333333334</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
@@ -10887,14 +10783,12 @@
         <v>391.825</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>391.4</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
@@ -10928,14 +10822,12 @@
         <v>391.8616666666667</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
@@ -10969,14 +10861,12 @@
         <v>391.9116666666667</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>390.9</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
@@ -11010,14 +10900,12 @@
         <v>391.9633333333334</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>390.9</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
@@ -11051,14 +10939,12 @@
         <v>392.0150000000002</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>390.9</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
@@ -11092,14 +10978,12 @@
         <v>392.0650000000002</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>390.9</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
@@ -11133,14 +11017,12 @@
         <v>392.2183333333335</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
@@ -11174,14 +11056,12 @@
         <v>392.3050000000001</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>391.1</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
@@ -11215,14 +11095,12 @@
         <v>392.3733333333334</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>391.1</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
@@ -11256,14 +11134,12 @@
         <v>392.41</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>391</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
@@ -11297,14 +11173,12 @@
         <v>392.465</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>390</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
@@ -11338,14 +11212,12 @@
         <v>392.4383333333333</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>389</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
@@ -11379,14 +11251,12 @@
         <v>392.4716666666666</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>389.9</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
@@ -11420,14 +11290,12 @@
         <v>392.5016666666667</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>387</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
@@ -11461,14 +11329,12 @@
         <v>392.485</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>387</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
@@ -11502,14 +11368,12 @@
         <v>392.3566666666666</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>385.3</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
@@ -11543,14 +11407,12 @@
         <v>392.2416666666667</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>389</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
@@ -11623,14 +11485,12 @@
         <v>392.0600000000001</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>388.8</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
@@ -11664,14 +11524,12 @@
         <v>391.96</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>388</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
@@ -11705,14 +11563,12 @@
         <v>391.86</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>388</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
@@ -11746,14 +11602,12 @@
         <v>391.695</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>385</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
@@ -11787,14 +11641,12 @@
         <v>391.5</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>384</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
@@ -11828,14 +11680,12 @@
         <v>391.3366666666667</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>384.5</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
@@ -11869,14 +11719,12 @@
         <v>391.1866666666667</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>385.9</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
@@ -11910,14 +11758,12 @@
         <v>391.035</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>386.8</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
@@ -11951,14 +11797,12 @@
         <v>390.8766666666667</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>386.5</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
@@ -11992,14 +11836,12 @@
         <v>390.7266666666666</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>386.9</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
@@ -12033,14 +11875,12 @@
         <v>390.595</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>386.9</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
@@ -12074,14 +11914,12 @@
         <v>390.465</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>387</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
@@ -12115,14 +11953,12 @@
         <v>390.3366666666667</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>387.9</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
@@ -12156,14 +11992,12 @@
         <v>390.2066666666667</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>387.9</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
@@ -12197,14 +12031,12 @@
         <v>390.0783333333333</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>388</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
@@ -12238,14 +12070,12 @@
         <v>389.9666666666666</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>389</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
@@ -12279,14 +12109,12 @@
         <v>389.8516666666666</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>389</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
@@ -12320,14 +12148,12 @@
         <v>389.7183333333333</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>389</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
@@ -12361,14 +12187,12 @@
         <v>389.5833333333333</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>387.8</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
@@ -12402,14 +12226,12 @@
         <v>389.47</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>389</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
@@ -12443,14 +12265,12 @@
         <v>389.3549999999999</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>389</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
@@ -12484,14 +12304,12 @@
         <v>389.3083333333332</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>389</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
@@ -12525,14 +12343,12 @@
         <v>389.2733333333333</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>389.9</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
@@ -12566,14 +12382,12 @@
         <v>389.2299999999999</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>389.1</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
@@ -12607,14 +12421,12 @@
         <v>389.1649999999999</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>388.5</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
@@ -12648,14 +12460,12 @@
         <v>389.1383333333332</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>390.4</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
@@ -12689,14 +12499,12 @@
         <v>389.1099999999998</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>390.3</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
@@ -12730,14 +12538,12 @@
         <v>389.0916666666665</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>390.9</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
@@ -12771,14 +12577,12 @@
         <v>389.0749999999999</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>390.9</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
@@ -12812,14 +12616,12 @@
         <v>389.0866666666665</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>390.9</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
@@ -12853,14 +12655,12 @@
         <v>389.0966666666666</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>390.9</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
@@ -12894,14 +12694,12 @@
         <v>389.115</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>391.4</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
@@ -12935,14 +12733,12 @@
         <v>389.1333333333333</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>391.4</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
@@ -12976,14 +12772,12 @@
         <v>389.1266666666667</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>391.5</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
@@ -13017,14 +12811,12 @@
         <v>389.2366666666666</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>392</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
@@ -13058,14 +12850,12 @@
         <v>389.3299999999999</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>395.6</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
@@ -13099,14 +12889,12 @@
         <v>389.4016666666666</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>395.6</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
@@ -16140,7 +15928,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest BCD.xlsx
+++ b/BackTest/2020-01-11 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1870,7 +1870,7 @@
         <v>-24951.29629367</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-26222.95959367</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-26222.95959367</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-26222.95959367</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-26334.67949367</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-22323.75719367</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-23471.27669367</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-23443.43019367</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-23206.20149367</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-26996.51409367</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-25996.51409367</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-26143.05779367</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-30678.05779367</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-29018.05779367</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-35109.40179366999</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -6622,10 +6622,14 @@
         <v>-160067.75848316</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>389.9</v>
+      </c>
+      <c r="J189" t="n">
+        <v>389.9</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
@@ -6655,11 +6659,19 @@
         <v>-160067.75848316</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>389</v>
+      </c>
+      <c r="J190" t="n">
+        <v>389.9</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6700,19 @@
         <v>-160067.75848316</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>389</v>
+      </c>
+      <c r="J191" t="n">
+        <v>389.9</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +6840,17 @@
         <v>-166386.76008316</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>386.4</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +6879,17 @@
         <v>-166265.69798316</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>383.8</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6918,17 @@
         <v>-166265.69798316</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>388.9</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +6961,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +6994,17 @@
         <v>-166553.54798316</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>387.9</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7033,17 @@
         <v>-166553.54798316</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>385.9</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7072,17 @@
         <v>-166553.54798316</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>385.9</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7111,17 @@
         <v>-166335.15648316</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>385.9</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7150,17 @@
         <v>-165825.15648316</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>386.9</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7189,17 @@
         <v>-165953.07728316</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>389.9</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7228,17 @@
         <v>-166351.47728316</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>388.9</v>
+      </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7267,17 @@
         <v>-166351.47728316</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>387</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7306,17 @@
         <v>-166462.67728316</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>387</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7345,17 @@
         <v>-166462.67728316</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>386.9</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7384,17 @@
         <v>-166462.67728316</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>386.9</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7423,17 @@
         <v>-165478.83778316</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>386.9</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7462,17 @@
         <v>-165431.83778316</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>389.9</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7501,17 @@
         <v>-165431.83778316</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>392</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7544,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7581,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7618,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7655,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7692,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7729,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7766,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7803,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7840,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7877,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7914,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7951,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7988,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8025,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8062,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8099,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8136,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8173,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8210,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8247,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8284,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8321,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8358,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8395,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8432,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8469,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8506,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8543,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8580,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8617,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8654,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8691,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8728,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8765,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +8802,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8839,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +8876,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8909,17 @@
         <v>-185122.2721234001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>390.3</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8948,17 @@
         <v>-185711.5874234001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>390.3</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8987,17 @@
         <v>-148408.9063234001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>389</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9030,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9067,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9104,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9141,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9178,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9215,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +9248,17 @@
         <v>-151946.0308234001</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>391.4</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9287,17 @@
         <v>-151161.7994234001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>388.3</v>
+      </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,7 +9326,7 @@
         <v>-148649.1900234001</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>389</v>
@@ -9006,7 +9334,7 @@
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L261" t="n">
@@ -9074,7 +9402,7 @@
         <v>-149009.1900234001</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>390</v>
@@ -9113,9 +9441,11 @@
         <v>-148523.2334234001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>388.2</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9187,9 +9517,11 @@
         <v>-133769.1482234001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>390</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9409,9 +9741,11 @@
         <v>-157977.8391234001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>387.3</v>
+      </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -9483,9 +9817,11 @@
         <v>-158233.6590234001</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>389.9</v>
+      </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -9520,9 +9856,11 @@
         <v>-155662.6590234001</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>388.8</v>
+      </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -9557,9 +9895,11 @@
         <v>-153738.1001234001</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>389.8</v>
+      </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -9594,9 +9934,11 @@
         <v>-154052.1001234001</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>389.9</v>
+      </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -9705,9 +10047,11 @@
         <v>-152967.0705234001</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>390.8</v>
+      </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -9742,9 +10086,11 @@
         <v>-153459.8448234001</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>389</v>
+      </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -9853,9 +10199,11 @@
         <v>-153616.3780234001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>387.8</v>
+      </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -9964,9 +10312,11 @@
         <v>-159195.8033234001</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>385.9</v>
+      </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10001,9 +10351,11 @@
         <v>-161250.1948234001</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>387</v>
+      </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -10038,9 +10390,11 @@
         <v>-161564.1948234001</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>386.9</v>
+      </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -10112,9 +10466,11 @@
         <v>-160585.9732243101</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>386.9</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -11518,9 +11874,11 @@
         <v>-161621.0839243101</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>390.3</v>
+      </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -11888,9 +12246,11 @@
         <v>-160126.4118243101</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>391</v>
+      </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -11925,9 +12285,11 @@
         <v>-160126.4118243101</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>391.2</v>
+      </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
@@ -11962,9 +12324,11 @@
         <v>-160440.4118243101</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>391.2</v>
+      </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -11999,9 +12363,11 @@
         <v>-160440.4118243101</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>390.9</v>
+      </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -12036,9 +12402,11 @@
         <v>-160440.4118243101</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>390.9</v>
+      </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -12369,9 +12737,11 @@
         <v>-174292.8501243101</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>389.9</v>
+      </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -12406,9 +12776,11 @@
         <v>-174793.1414243102</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>388.8</v>
+      </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -12443,9 +12815,11 @@
         <v>-195858.1478243102</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>387</v>
+      </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
@@ -12665,9 +13039,11 @@
         <v>-188084.2556243102</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>388</v>
+      </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -12702,9 +13078,11 @@
         <v>-188634.9501243102</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>385</v>
+      </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -12739,7 +13117,7 @@
         <v>-188083.5501243102</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>383</v>
@@ -12778,7 +13156,7 @@
         <v>-188082.0501243102</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>384.9</v>
@@ -12817,7 +13195,7 @@
         <v>-188080.5501243102</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>385.9</v>
@@ -12856,7 +13234,7 @@
         <v>-188107.6976243102</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>386.8</v>
@@ -12895,7 +13273,7 @@
         <v>-187807.6976243102</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>386.5</v>
@@ -12934,7 +13312,7 @@
         <v>-187807.6976243102</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>386.9</v>
@@ -12973,7 +13351,7 @@
         <v>-186915.2152243102</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>386.9</v>
@@ -13012,7 +13390,7 @@
         <v>-186007.6218243102</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>387</v>
@@ -13051,7 +13429,7 @@
         <v>-186657.6617087102</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>388</v>
@@ -13090,7 +13468,7 @@
         <v>-184973.8619087102</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>387.9</v>
@@ -13129,7 +13507,7 @@
         <v>-184946.1646087102</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>388</v>
@@ -13168,7 +13546,7 @@
         <v>-184946.1646087102</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>389</v>
@@ -13207,9 +13585,11 @@
         <v>-185135.4165087102</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>389</v>
+      </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -13244,9 +13624,11 @@
         <v>-185314.2165087102</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>387.9</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13281,9 +13663,11 @@
         <v>-185312.9165087102</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>387.8</v>
+      </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -13318,9 +13702,11 @@
         <v>-185312.9165087102</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>389</v>
+      </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -13355,9 +13741,11 @@
         <v>-183545.5734087102</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>389</v>
+      </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -13392,9 +13780,11 @@
         <v>-183543.5734087102</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>389.1</v>
+      </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13429,9 +13819,11 @@
         <v>-184167.5470087102</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>389.9</v>
+      </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -13466,9 +13858,11 @@
         <v>-186948.3618087102</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>389.4</v>
+      </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -13503,9 +13897,11 @@
         <v>-186595.3618087102</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>388</v>
+      </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -13540,9 +13936,11 @@
         <v>-186595.3618087102</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>390.3</v>
+      </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13577,9 +13975,11 @@
         <v>-186591.4618087102</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>390.3</v>
+      </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -13614,9 +14014,11 @@
         <v>-186591.4618087102</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>390.9</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13651,9 +14053,11 @@
         <v>-186591.4618087102</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>390.9</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13688,9 +14092,11 @@
         <v>-186591.4618087102</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>390.9</v>
+      </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -13725,11 +14131,9 @@
         <v>-186586.2319087102</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>390.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13764,11 +14168,9 @@
         <v>-186586.2319087102</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>391.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13840,9 +14242,11 @@
         <v>-184106.6553026502</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>391.5</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -14506,7 +14910,7 @@
         <v>-181738.9626595502</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>395</v>
@@ -14545,11 +14949,9 @@
         <v>-181738.9626595502</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>395.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14584,7 +14986,7 @@
         <v>-182009.0413595502</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>395.7</v>
@@ -14660,9 +15062,11 @@
         <v>-153458.5142595502</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>396</v>
+      </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -16695,16 +17099,18 @@
         <v>-11665.04619966021</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L468" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L468" t="n">
+        <v>1</v>
+      </c>
       <c r="M468" t="inlineStr"/>
     </row>
     <row r="469">
@@ -16730,11 +17136,15 @@
         <v>-12083.61719966021</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16763,11 +17173,15 @@
         <v>-14583.61719966021</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16800,7 +17214,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16833,7 +17251,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16866,7 +17288,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16895,11 +17321,15 @@
         <v>-11569.28189966021</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16928,11 +17358,15 @@
         <v>-17431.39137969021</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16961,11 +17395,15 @@
         <v>-22179.55907969021</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16998,7 +17436,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17031,7 +17473,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17064,7 +17510,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17093,11 +17543,15 @@
         <v>-26104.78207816021</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17126,11 +17580,15 @@
         <v>-24433.44367816021</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17163,7 +17621,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17196,7 +17658,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17225,14 +17691,16 @@
         <v>-30836.16787816021</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="n">
-        <v>1</v>
-      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr"/>
       <c r="M484" t="inlineStr"/>
     </row>
     <row r="485">
@@ -17258,7 +17726,7 @@
         <v>-30836.16787816021</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17291,7 +17759,7 @@
         <v>-30836.16787816021</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17324,7 +17792,7 @@
         <v>-31098.66877816021</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17357,7 +17825,7 @@
         <v>-31748.20157816021</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17390,7 +17858,7 @@
         <v>-31748.20157816021</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17423,7 +17891,7 @@
         <v>-31940.49757816021</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17456,7 +17924,7 @@
         <v>-22495.88117816021</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17489,7 +17957,7 @@
         <v>-23408.0387781602</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17522,7 +17990,7 @@
         <v>-23408.0387781602</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17555,7 +18023,7 @@
         <v>-20586.9424781602</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17588,7 +18056,7 @@
         <v>-17662.9277781602</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17621,7 +18089,7 @@
         <v>-20252.3373781602</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17654,7 +18122,7 @@
         <v>-21217.4688781602</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17687,7 +18155,7 @@
         <v>-23658.3803781602</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17720,7 +18188,7 @@
         <v>-24323.4288781602</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17753,7 +18221,7 @@
         <v>-23166.1139781602</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17786,7 +18254,7 @@
         <v>-23318.5206781602</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17885,7 +18353,7 @@
         <v>-28254.03927816021</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18182,7 +18650,7 @@
         <v>-31242.6412781602</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18215,7 +18683,7 @@
         <v>-32593.27877816021</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18248,7 +18716,7 @@
         <v>-32494.43757816021</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18281,7 +18749,7 @@
         <v>-32494.43757816021</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18314,7 +18782,7 @@
         <v>-32494.43757816021</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18347,7 +18815,7 @@
         <v>-32912.4252781602</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18380,7 +18848,7 @@
         <v>-31352.4252781602</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18413,7 +18881,7 @@
         <v>-31352.4252781602</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18446,7 +18914,7 @@
         <v>-31620.3171781602</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18479,7 +18947,7 @@
         <v>-29640.3171781602</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18512,7 +18980,7 @@
         <v>-29640.3171781602</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18545,7 +19013,7 @@
         <v>-28074.8288781602</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18578,7 +19046,7 @@
         <v>-29997.7324926102</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18611,7 +19079,7 @@
         <v>-31661.9921926102</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18644,7 +19112,7 @@
         <v>-48821.0597926102</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18677,7 +19145,7 @@
         <v>-48814.1340926102</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18710,7 +19178,7 @@
         <v>-51974.1340926102</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18743,7 +19211,7 @@
         <v>-55458.7625926102</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18776,7 +19244,7 @@
         <v>-52977.4085926102</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18809,7 +19277,7 @@
         <v>-53291.7085926102</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18842,7 +19310,7 @@
         <v>-55266.8952926102</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18875,7 +19343,7 @@
         <v>-55794.0071926102</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18908,7 +19376,7 @@
         <v>-55479.4169926102</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18941,7 +19409,7 @@
         <v>-55479.4169926102</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18974,7 +19442,7 @@
         <v>-55480.7746926102</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19051,6 +19519,6 @@
       <c r="M539" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest BCD.xlsx
+++ b/BackTest/2020-01-11 BackTest BCD.xlsx
@@ -8701,11 +8701,17 @@
         <v>-148408.9063234001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>389</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +8744,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +8781,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +8818,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +8855,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +8892,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +8929,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +8966,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9003,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9040,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9077,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9114,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9151,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9188,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9225,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9262,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9299,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9336,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9373,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9410,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9447,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +9484,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +9521,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +9558,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +9595,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +9632,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +9669,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +9706,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +9743,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +9780,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +9817,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +9854,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +9891,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +9928,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +9965,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10002,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10039,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10076,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10113,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10150,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10187,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10224,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10261,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10298,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10335,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10372,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10409,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +10446,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +10483,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +10520,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +10557,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +10594,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +10631,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +10668,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +10705,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +10742,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +10779,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +10816,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +10853,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +10890,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +10927,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +10964,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +11001,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11038,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +11075,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +11112,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11149,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11186,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11223,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11260,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11297,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11334,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11371,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11408,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11445,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11482,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11519,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11556,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11593,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11630,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11667,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11704,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11741,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11778,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11815,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +11852,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +11889,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +11926,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +11963,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +12000,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +12037,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +12074,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +12111,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +12148,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,15 +12181,15 @@
         <v>-160739.1118243102</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>391.3</v>
-      </c>
-      <c r="J346" t="n">
-        <v>391.3</v>
-      </c>
-      <c r="K346" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,17 +12218,13 @@
         <v>-160739.1118243102</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="J347" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -11881,17 +12255,13 @@
         <v>-163297.2642243101</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="J348" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L348" t="n">
@@ -11922,14 +12292,10 @@
         <v>-163295.9642243102</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="J349" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11963,14 +12329,10 @@
         <v>-169443.2464243101</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>390</v>
-      </c>
-      <c r="J350" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12004,14 +12366,10 @@
         <v>-169441.9464243102</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>385.3</v>
-      </c>
-      <c r="J351" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12045,14 +12403,10 @@
         <v>-174292.8501243101</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>389.9</v>
-      </c>
-      <c r="J352" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12086,14 +12440,10 @@
         <v>-174793.1414243102</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>388.8</v>
-      </c>
-      <c r="J353" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12127,14 +12477,10 @@
         <v>-195858.1478243102</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>387</v>
-      </c>
-      <c r="J354" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12168,14 +12514,10 @@
         <v>-187980.6799243102</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>380.3</v>
-      </c>
-      <c r="J355" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12209,14 +12551,10 @@
         <v>-186551.5437243102</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>388.7</v>
-      </c>
-      <c r="J356" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12250,14 +12588,10 @@
         <v>-186680.8436243102</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>389.9</v>
-      </c>
-      <c r="J357" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12291,14 +12625,10 @@
         <v>-188054.2556243102</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>388.8</v>
-      </c>
-      <c r="J358" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12332,14 +12662,10 @@
         <v>-188054.2556243102</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>388</v>
-      </c>
-      <c r="J359" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12376,9 +12702,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12412,14 +12736,10 @@
         <v>-188634.9501243102</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>385</v>
-      </c>
-      <c r="J361" t="n">
-        <v>391.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12458,9 +12778,7 @@
       <c r="I362" t="n">
         <v>383</v>
       </c>
-      <c r="J362" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12499,9 +12817,7 @@
       <c r="I363" t="n">
         <v>384.9</v>
       </c>
-      <c r="J363" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12540,9 +12856,7 @@
       <c r="I364" t="n">
         <v>385.9</v>
       </c>
-      <c r="J364" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12581,9 +12895,7 @@
       <c r="I365" t="n">
         <v>386.8</v>
       </c>
-      <c r="J365" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12622,9 +12934,7 @@
       <c r="I366" t="n">
         <v>386.5</v>
       </c>
-      <c r="J366" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12663,9 +12973,7 @@
       <c r="I367" t="n">
         <v>386.9</v>
       </c>
-      <c r="J367" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12704,9 +13012,7 @@
       <c r="I368" t="n">
         <v>386.9</v>
       </c>
-      <c r="J368" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12745,9 +13051,7 @@
       <c r="I369" t="n">
         <v>387</v>
       </c>
-      <c r="J369" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12786,9 +13090,7 @@
       <c r="I370" t="n">
         <v>388</v>
       </c>
-      <c r="J370" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12827,9 +13129,7 @@
       <c r="I371" t="n">
         <v>387.9</v>
       </c>
-      <c r="J371" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12868,9 +13168,7 @@
       <c r="I372" t="n">
         <v>388</v>
       </c>
-      <c r="J372" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12909,9 +13207,7 @@
       <c r="I373" t="n">
         <v>389</v>
       </c>
-      <c r="J373" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12945,12 +13241,12 @@
         <v>-185135.4165087102</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>389</v>
+      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12989,9 +13285,7 @@
       <c r="I375" t="n">
         <v>387.9</v>
       </c>
-      <c r="J375" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13030,9 +13324,7 @@
       <c r="I376" t="n">
         <v>387.8</v>
       </c>
-      <c r="J376" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13071,9 +13363,7 @@
       <c r="I377" t="n">
         <v>389</v>
       </c>
-      <c r="J377" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13107,12 +13397,12 @@
         <v>-183545.5734087102</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>389</v>
+      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13146,12 +13436,12 @@
         <v>-183543.5734087102</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13185,12 +13475,12 @@
         <v>-184167.5470087102</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>389.9</v>
+      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13224,12 +13514,12 @@
         <v>-186948.3618087102</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13263,12 +13553,12 @@
         <v>-186595.3618087102</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>388</v>
+      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13307,9 +13597,7 @@
       <c r="I383" t="n">
         <v>390.3</v>
       </c>
-      <c r="J383" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13348,9 +13636,7 @@
       <c r="I384" t="n">
         <v>390.3</v>
       </c>
-      <c r="J384" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13389,9 +13675,7 @@
       <c r="I385" t="n">
         <v>390.9</v>
       </c>
-      <c r="J385" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13430,9 +13714,7 @@
       <c r="I386" t="n">
         <v>390.9</v>
       </c>
-      <c r="J386" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13471,9 +13753,7 @@
       <c r="I387" t="n">
         <v>390.9</v>
       </c>
-      <c r="J387" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13512,9 +13792,7 @@
       <c r="I388" t="n">
         <v>390.9</v>
       </c>
-      <c r="J388" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13553,9 +13831,7 @@
       <c r="I389" t="n">
         <v>391.4</v>
       </c>
-      <c r="J389" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13594,9 +13870,7 @@
       <c r="I390" t="n">
         <v>391.4</v>
       </c>
-      <c r="J390" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13635,9 +13909,7 @@
       <c r="I391" t="n">
         <v>391.5</v>
       </c>
-      <c r="J391" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13671,12 +13943,12 @@
         <v>-184106.6553026502</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13710,12 +13982,12 @@
         <v>-183348.4890595502</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13749,12 +14021,12 @@
         <v>-183957.3577595502</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>395.7</v>
+      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13788,12 +14060,12 @@
         <v>-183427.1966595502</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13827,12 +14099,12 @@
         <v>-183439.7833595502</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>396</v>
+      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13866,12 +14138,12 @@
         <v>-183439.7833595502</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>395</v>
+      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13905,12 +14177,12 @@
         <v>-183439.7833595502</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>395</v>
+      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13944,12 +14216,12 @@
         <v>-183211.0333595502</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>395</v>
+      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13983,12 +14255,12 @@
         <v>-183208.0333595502</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>395.9</v>
+      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14022,12 +14294,12 @@
         <v>-183208.0333595502</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>396</v>
+      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14061,12 +14333,12 @@
         <v>-183208.0333595502</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>396</v>
+      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14100,12 +14372,12 @@
         <v>-183208.0333595502</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>396</v>
+      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14139,12 +14411,12 @@
         <v>-184726.8898595502</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>396</v>
+      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14178,12 +14450,12 @@
         <v>-184722.8898595502</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>391.6</v>
+      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14217,12 +14489,12 @@
         <v>-184982.8898595502</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14256,12 +14528,12 @@
         <v>-184757.8223595502</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>391.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>393</v>
+      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14300,9 +14572,7 @@
       <c r="I408" t="n">
         <v>394.5</v>
       </c>
-      <c r="J408" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14341,9 +14611,7 @@
       <c r="I409" t="n">
         <v>395</v>
       </c>
-      <c r="J409" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14382,9 +14650,7 @@
       <c r="I410" t="n">
         <v>395.7</v>
       </c>
-      <c r="J410" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14423,9 +14689,7 @@
       <c r="I411" t="n">
         <v>395.7</v>
       </c>
-      <c r="J411" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14464,9 +14728,7 @@
       <c r="I412" t="n">
         <v>395</v>
       </c>
-      <c r="J412" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14505,9 +14767,7 @@
       <c r="I413" t="n">
         <v>396</v>
       </c>
-      <c r="J413" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14544,9 +14804,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14583,9 +14841,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14622,9 +14878,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14658,19 +14912,17 @@
         <v>-119741.2413579402</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>391.3</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L417" t="n">
-        <v>1.032567084078712</v>
+        <v>1</v>
       </c>
       <c r="M417" t="inlineStr"/>
     </row>
@@ -14697,11 +14949,15 @@
         <v>-121456.3146579402</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14730,11 +14986,15 @@
         <v>-121456.3146579402</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14763,11 +15023,15 @@
         <v>-120826.3146579402</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14796,11 +15060,15 @@
         <v>-106569.8088263002</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14829,11 +15097,15 @@
         <v>-113073.8302996602</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14862,11 +15134,15 @@
         <v>-109717.1223996602</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14895,11 +15171,15 @@
         <v>-102801.1040996602</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14928,11 +15208,15 @@
         <v>-105123.0499996602</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14961,11 +15245,15 @@
         <v>-105123.0499996602</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14994,11 +15282,15 @@
         <v>-104700.6499996602</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15027,11 +15319,15 @@
         <v>-101530.8798996602</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15060,11 +15356,15 @@
         <v>-97669.61319966021</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15093,11 +15393,15 @@
         <v>-101620.9081996602</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15126,11 +15430,15 @@
         <v>-101624.1231996602</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15159,11 +15467,15 @@
         <v>-102321.8701996602</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15192,11 +15504,15 @@
         <v>-102569.8920996602</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15225,11 +15541,15 @@
         <v>-112239.3248996602</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15258,11 +15578,15 @@
         <v>-123598.4952996602</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15291,11 +15615,15 @@
         <v>-121634.0674996602</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15324,11 +15652,15 @@
         <v>-122752.3982996602</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15357,11 +15689,15 @@
         <v>-117246.1741996602</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15390,11 +15726,15 @@
         <v>-117244.9481996602</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15423,11 +15763,15 @@
         <v>-117409.0481996602</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15456,11 +15800,15 @@
         <v>-115330.3596996602</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15489,11 +15837,15 @@
         <v>-115330.3596996602</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15522,11 +15874,15 @@
         <v>-115536.3596996602</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15555,11 +15911,15 @@
         <v>-115536.3596996602</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15588,11 +15948,15 @@
         <v>-115353.8596996602</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15621,11 +15985,15 @@
         <v>-113909.4776996602</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15654,11 +16022,15 @@
         <v>-114476.8369996602</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15687,11 +16059,15 @@
         <v>-113436.8369996602</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15720,11 +16096,15 @@
         <v>-113050.2938996602</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15753,11 +16133,15 @@
         <v>-114058.9910996602</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15786,11 +16170,15 @@
         <v>-114058.9910996602</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15819,11 +16207,15 @@
         <v>-114280.9696996602</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15852,11 +16244,15 @@
         <v>-114167.5763996602</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15885,11 +16281,15 @@
         <v>-114167.5763996602</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15918,11 +16318,15 @@
         <v>-114160.1670996602</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15951,11 +16355,15 @@
         <v>-109054.7638996602</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15984,11 +16392,15 @@
         <v>-109722.1565996602</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16017,11 +16429,15 @@
         <v>-89923.59699966019</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16050,11 +16466,15 @@
         <v>-89950.93829966019</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16083,11 +16503,15 @@
         <v>-90000.07209966019</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16116,11 +16540,15 @@
         <v>-89996.55959966019</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16149,11 +16577,15 @@
         <v>-89996.55959966019</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16182,11 +16614,15 @@
         <v>-90080.3295996602</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16215,11 +16651,15 @@
         <v>-85187.5389996602</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16248,11 +16688,15 @@
         <v>-71548.42969966021</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16281,11 +16725,15 @@
         <v>-52848.53089966021</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16314,11 +16762,15 @@
         <v>-21982.06869966021</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16351,7 +16803,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16380,14 +16836,16 @@
         <v>-12083.61719966021</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="n">
-        <v>1</v>
-      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="inlineStr"/>
     </row>
     <row r="470">
@@ -16446,7 +16904,7 @@
         <v>-10408.10279966021</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16479,7 +16937,7 @@
         <v>-21559.65589966021</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16512,7 +16970,7 @@
         <v>-8600.82369966021</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16545,7 +17003,7 @@
         <v>-11569.28189966021</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16578,7 +17036,7 @@
         <v>-17431.39137969021</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16611,7 +17069,7 @@
         <v>-22179.55907969021</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16644,7 +17102,7 @@
         <v>-27872.13127969021</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16677,7 +17135,7 @@
         <v>-25639.59047969021</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16710,7 +17168,7 @@
         <v>-26104.78207816021</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16743,7 +17201,7 @@
         <v>-26104.78207816021</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16776,7 +17234,7 @@
         <v>-24433.44367816021</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16809,7 +17267,7 @@
         <v>-30135.50077816021</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16842,7 +17300,7 @@
         <v>-30442.82497816021</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16875,7 +17333,7 @@
         <v>-30836.16787816021</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16908,7 +17366,7 @@
         <v>-30836.16787816021</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16974,7 +17432,7 @@
         <v>-31098.66877816021</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17007,7 +17465,7 @@
         <v>-31748.20157816021</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17040,7 +17498,7 @@
         <v>-31748.20157816021</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17073,7 +17531,7 @@
         <v>-31940.49757816021</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17436,7 +17894,7 @@
         <v>-23318.5206781602</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
